--- a/dim_model.xlsx
+++ b/dim_model.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\PROJECT_Python\project_posm_calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD77D24D-011F-4D43-8E44-6CEA73B0FD15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E71DEF-9B0B-4317-9D80-4A8D37EFB014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{91FD5B02-67DC-42A9-B856-C472C3352C31}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="495">
   <si>
     <t>EWF1024P5SB</t>
   </si>
@@ -1521,6 +1521,9 @@
   </si>
   <si>
     <t>category</t>
+  </si>
+  <si>
+    <t>priority</t>
   </si>
 </sst>
 </file>
@@ -1892,10 +1895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF086616-8059-426C-AE06-47201F906A93}">
-  <dimension ref="A1:C463"/>
+  <dimension ref="A1:D463"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1904,7 +1907,7 @@
     <col min="2" max="2" width="17.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>491</v>
       </c>
@@ -1914,8 +1917,11 @@
       <c r="C1" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1925,8 +1931,11 @@
       <c r="C2" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1936,8 +1945,11 @@
       <c r="C3" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1947,8 +1959,11 @@
       <c r="C4" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1958,8 +1973,11 @@
       <c r="C5" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1969,8 +1987,11 @@
       <c r="C6" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1980,8 +2001,11 @@
       <c r="C7" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1991,8 +2015,11 @@
       <c r="C8" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2002,8 +2029,11 @@
       <c r="C9" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2013,8 +2043,11 @@
       <c r="C10" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2024,8 +2057,11 @@
       <c r="C11" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2035,8 +2071,11 @@
       <c r="C12" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2046,8 +2085,11 @@
       <c r="C13" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2057,8 +2099,11 @@
       <c r="C14" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2068,8 +2113,11 @@
       <c r="C15" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2079,8 +2127,11 @@
       <c r="C16" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2090,8 +2141,11 @@
       <c r="C17" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2101,8 +2155,11 @@
       <c r="C18" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2112,8 +2169,11 @@
       <c r="C19" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2123,8 +2183,11 @@
       <c r="C20" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2134,8 +2197,11 @@
       <c r="C21" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2145,8 +2211,11 @@
       <c r="C22" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2156,8 +2225,11 @@
       <c r="C23" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2167,8 +2239,11 @@
       <c r="C24" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2178,8 +2253,11 @@
       <c r="C25" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2189,8 +2267,11 @@
       <c r="C26" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -2200,8 +2281,11 @@
       <c r="C27" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2211,8 +2295,11 @@
       <c r="C28" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2222,8 +2309,11 @@
       <c r="C29" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2233,8 +2323,11 @@
       <c r="C30" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2244,8 +2337,11 @@
       <c r="C31" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2255,8 +2351,11 @@
       <c r="C32" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2266,8 +2365,11 @@
       <c r="C33" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2277,8 +2379,11 @@
       <c r="C34" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -2288,8 +2393,11 @@
       <c r="C35" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -2299,8 +2407,11 @@
       <c r="C36" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2310,8 +2421,11 @@
       <c r="C37" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -2321,8 +2435,11 @@
       <c r="C38" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -2332,8 +2449,11 @@
       <c r="C39" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -2343,8 +2463,11 @@
       <c r="C40" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -2354,8 +2477,11 @@
       <c r="C41" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -2365,8 +2491,11 @@
       <c r="C42" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -2376,8 +2505,11 @@
       <c r="C43" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -2387,8 +2519,11 @@
       <c r="C44" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -2398,8 +2533,11 @@
       <c r="C45" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -2409,8 +2547,11 @@
       <c r="C46" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -2420,8 +2561,11 @@
       <c r="C47" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -2431,8 +2575,11 @@
       <c r="C48" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -2442,8 +2589,11 @@
       <c r="C49" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -2453,8 +2603,11 @@
       <c r="C50" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -2464,8 +2617,11 @@
       <c r="C51" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -2475,8 +2631,11 @@
       <c r="C52" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -2486,8 +2645,11 @@
       <c r="C53" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -2497,8 +2659,11 @@
       <c r="C54" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -2508,8 +2673,11 @@
       <c r="C55" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -2519,8 +2687,11 @@
       <c r="C56" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -2530,8 +2701,11 @@
       <c r="C57" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -2541,8 +2715,11 @@
       <c r="C58" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -2552,8 +2729,11 @@
       <c r="C59" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -2563,8 +2743,11 @@
       <c r="C60" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -2574,8 +2757,11 @@
       <c r="C61" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -2585,8 +2771,11 @@
       <c r="C62" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -2596,8 +2785,11 @@
       <c r="C63" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -2607,8 +2799,11 @@
       <c r="C64" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -2618,8 +2813,11 @@
       <c r="C65" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -2629,8 +2827,11 @@
       <c r="C66" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -2640,8 +2841,11 @@
       <c r="C67" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -2651,8 +2855,11 @@
       <c r="C68" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -2662,8 +2869,11 @@
       <c r="C69" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -2673,8 +2883,11 @@
       <c r="C70" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -2684,8 +2897,11 @@
       <c r="C71" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -2695,8 +2911,11 @@
       <c r="C72" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -2706,8 +2925,11 @@
       <c r="C73" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -2717,8 +2939,11 @@
       <c r="C74" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -2728,8 +2953,11 @@
       <c r="C75" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -2739,8 +2967,11 @@
       <c r="C76" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2981,11 @@
       <c r="C77" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -2761,8 +2995,11 @@
       <c r="C78" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -2772,8 +3009,11 @@
       <c r="C79" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -2783,8 +3023,11 @@
       <c r="C80" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -2794,8 +3037,11 @@
       <c r="C81" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -2805,8 +3051,11 @@
       <c r="C82" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -2816,8 +3065,11 @@
       <c r="C83" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -2827,8 +3079,11 @@
       <c r="C84" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -2838,8 +3093,11 @@
       <c r="C85" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -2849,8 +3107,11 @@
       <c r="C86" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -2860,8 +3121,11 @@
       <c r="C87" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -2871,8 +3135,11 @@
       <c r="C88" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -2882,8 +3149,11 @@
       <c r="C89" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -2893,8 +3163,11 @@
       <c r="C90" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -2904,8 +3177,11 @@
       <c r="C91" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -2915,8 +3191,11 @@
       <c r="C92" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -2926,8 +3205,11 @@
       <c r="C93" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -2937,8 +3219,11 @@
       <c r="C94" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -2948,8 +3233,11 @@
       <c r="C95" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -2959,8 +3247,11 @@
       <c r="C96" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -2970,8 +3261,11 @@
       <c r="C97" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -2981,8 +3275,11 @@
       <c r="C98" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -2992,8 +3289,11 @@
       <c r="C99" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -3003,8 +3303,11 @@
       <c r="C100" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -3014,8 +3317,11 @@
       <c r="C101" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>100</v>
       </c>
@@ -3025,8 +3331,11 @@
       <c r="C102" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -3036,8 +3345,11 @@
       <c r="C103" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>102</v>
       </c>
@@ -3047,8 +3359,11 @@
       <c r="C104" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -3058,8 +3373,11 @@
       <c r="C105" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -3069,8 +3387,11 @@
       <c r="C106" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -3080,8 +3401,11 @@
       <c r="C107" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>106</v>
       </c>
@@ -3091,8 +3415,11 @@
       <c r="C108" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -3102,8 +3429,11 @@
       <c r="C109" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -3113,8 +3443,11 @@
       <c r="C110" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>109</v>
       </c>
@@ -3124,8 +3457,11 @@
       <c r="C111" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -3135,8 +3471,11 @@
       <c r="C112" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>111</v>
       </c>
@@ -3146,8 +3485,11 @@
       <c r="C113" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>112</v>
       </c>
@@ -3157,8 +3499,11 @@
       <c r="C114" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>113</v>
       </c>
@@ -3168,8 +3513,11 @@
       <c r="C115" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -3179,8 +3527,11 @@
       <c r="C116" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>115</v>
       </c>
@@ -3190,8 +3541,11 @@
       <c r="C117" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>116</v>
       </c>
@@ -3201,8 +3555,11 @@
       <c r="C118" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>117</v>
       </c>
@@ -3212,8 +3569,11 @@
       <c r="C119" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>118</v>
       </c>
@@ -3223,8 +3583,11 @@
       <c r="C120" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>119</v>
       </c>
@@ -3234,8 +3597,11 @@
       <c r="C121" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>120</v>
       </c>
@@ -3245,8 +3611,11 @@
       <c r="C122" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>121</v>
       </c>
@@ -3256,8 +3625,11 @@
       <c r="C123" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>122</v>
       </c>
@@ -3267,8 +3639,11 @@
       <c r="C124" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>123</v>
       </c>
@@ -3278,8 +3653,11 @@
       <c r="C125" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>124</v>
       </c>
@@ -3289,8 +3667,11 @@
       <c r="C126" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>125</v>
       </c>
@@ -3300,8 +3681,11 @@
       <c r="C127" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>126</v>
       </c>
@@ -3311,8 +3695,11 @@
       <c r="C128" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>127</v>
       </c>
@@ -3322,8 +3709,11 @@
       <c r="C129" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>128</v>
       </c>
@@ -3333,8 +3723,11 @@
       <c r="C130" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>129</v>
       </c>
@@ -3344,8 +3737,11 @@
       <c r="C131" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>130</v>
       </c>
@@ -3355,8 +3751,11 @@
       <c r="C132" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>131</v>
       </c>
@@ -3366,8 +3765,11 @@
       <c r="C133" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>132</v>
       </c>
@@ -3377,8 +3779,11 @@
       <c r="C134" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>133</v>
       </c>
@@ -3388,8 +3793,11 @@
       <c r="C135" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>134</v>
       </c>
@@ -3399,8 +3807,11 @@
       <c r="C136" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>135</v>
       </c>
@@ -3410,8 +3821,11 @@
       <c r="C137" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>136</v>
       </c>
@@ -3421,8 +3835,11 @@
       <c r="C138" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>137</v>
       </c>
@@ -3432,8 +3849,11 @@
       <c r="C139" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>138</v>
       </c>
@@ -3443,8 +3863,11 @@
       <c r="C140" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>139</v>
       </c>
@@ -3454,8 +3877,11 @@
       <c r="C141" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>140</v>
       </c>
@@ -3465,8 +3891,11 @@
       <c r="C142" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>141</v>
       </c>
@@ -3476,8 +3905,11 @@
       <c r="C143" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>142</v>
       </c>
@@ -3487,8 +3919,11 @@
       <c r="C144" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>143</v>
       </c>
@@ -3498,8 +3933,11 @@
       <c r="C145" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>144</v>
       </c>
@@ -3509,8 +3947,11 @@
       <c r="C146" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>145</v>
       </c>
@@ -3520,8 +3961,11 @@
       <c r="C147" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>146</v>
       </c>
@@ -3531,8 +3975,11 @@
       <c r="C148" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>147</v>
       </c>
@@ -3542,8 +3989,11 @@
       <c r="C149" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>148</v>
       </c>
@@ -3553,8 +4003,11 @@
       <c r="C150" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>149</v>
       </c>
@@ -3564,8 +4017,11 @@
       <c r="C151" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>150</v>
       </c>
@@ -3575,8 +4031,11 @@
       <c r="C152" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>151</v>
       </c>
@@ -3586,8 +4045,11 @@
       <c r="C153" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>152</v>
       </c>
@@ -3597,8 +4059,11 @@
       <c r="C154" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>153</v>
       </c>
@@ -3608,8 +4073,11 @@
       <c r="C155" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>154</v>
       </c>
@@ -3619,8 +4087,11 @@
       <c r="C156" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>155</v>
       </c>
@@ -3630,8 +4101,11 @@
       <c r="C157" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>156</v>
       </c>
@@ -3641,8 +4115,11 @@
       <c r="C158" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>157</v>
       </c>
@@ -3652,8 +4129,11 @@
       <c r="C159" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>158</v>
       </c>
@@ -3663,8 +4143,11 @@
       <c r="C160" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>159</v>
       </c>
@@ -3674,8 +4157,11 @@
       <c r="C161" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>160</v>
       </c>
@@ -3685,8 +4171,11 @@
       <c r="C162" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>161</v>
       </c>
@@ -3696,8 +4185,11 @@
       <c r="C163" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>162</v>
       </c>
@@ -3707,8 +4199,11 @@
       <c r="C164" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>163</v>
       </c>
@@ -3718,8 +4213,11 @@
       <c r="C165" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>164</v>
       </c>
@@ -3729,8 +4227,11 @@
       <c r="C166" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>165</v>
       </c>
@@ -3740,8 +4241,11 @@
       <c r="C167" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>166</v>
       </c>
@@ -3751,8 +4255,11 @@
       <c r="C168" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>167</v>
       </c>
@@ -3762,8 +4269,11 @@
       <c r="C169" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>168</v>
       </c>
@@ -3773,8 +4283,11 @@
       <c r="C170" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>169</v>
       </c>
@@ -3784,8 +4297,11 @@
       <c r="C171" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>170</v>
       </c>
@@ -3795,8 +4311,11 @@
       <c r="C172" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>171</v>
       </c>
@@ -3806,8 +4325,11 @@
       <c r="C173" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>172</v>
       </c>
@@ -3817,8 +4339,11 @@
       <c r="C174" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>173</v>
       </c>
@@ -3828,8 +4353,11 @@
       <c r="C175" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>174</v>
       </c>
@@ -3839,8 +4367,11 @@
       <c r="C176" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D176">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>175</v>
       </c>
@@ -3850,8 +4381,11 @@
       <c r="C177" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D177">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>176</v>
       </c>
@@ -3861,8 +4395,11 @@
       <c r="C178" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>177</v>
       </c>
@@ -3872,8 +4409,11 @@
       <c r="C179" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>178</v>
       </c>
@@ -3883,8 +4423,11 @@
       <c r="C180" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D180">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>179</v>
       </c>
@@ -3894,8 +4437,11 @@
       <c r="C181" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>180</v>
       </c>
@@ -3905,8 +4451,11 @@
       <c r="C182" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>181</v>
       </c>
@@ -3916,8 +4465,11 @@
       <c r="C183" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>182</v>
       </c>
@@ -3927,8 +4479,11 @@
       <c r="C184" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>183</v>
       </c>
@@ -3938,8 +4493,11 @@
       <c r="C185" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>184</v>
       </c>
@@ -3949,8 +4507,11 @@
       <c r="C186" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D186">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>185</v>
       </c>
@@ -3960,8 +4521,11 @@
       <c r="C187" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>186</v>
       </c>
@@ -3971,8 +4535,11 @@
       <c r="C188" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>187</v>
       </c>
@@ -3982,8 +4549,11 @@
       <c r="C189" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>188</v>
       </c>
@@ -3993,8 +4563,11 @@
       <c r="C190" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>189</v>
       </c>
@@ -4004,8 +4577,11 @@
       <c r="C191" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D191">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>190</v>
       </c>
@@ -4015,8 +4591,11 @@
       <c r="C192" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>191</v>
       </c>
@@ -4026,8 +4605,11 @@
       <c r="C193" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>192</v>
       </c>
@@ -4037,8 +4619,11 @@
       <c r="C194" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D194">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>193</v>
       </c>
@@ -4048,8 +4633,11 @@
       <c r="C195" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>194</v>
       </c>
@@ -4059,8 +4647,11 @@
       <c r="C196" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>195</v>
       </c>
@@ -4070,8 +4661,11 @@
       <c r="C197" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D197">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>196</v>
       </c>
@@ -4081,8 +4675,11 @@
       <c r="C198" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D198">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>197</v>
       </c>
@@ -4092,8 +4689,11 @@
       <c r="C199" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>198</v>
       </c>
@@ -4103,8 +4703,11 @@
       <c r="C200" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D200">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>199</v>
       </c>
@@ -4114,8 +4717,11 @@
       <c r="C201" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>200</v>
       </c>
@@ -4125,8 +4731,11 @@
       <c r="C202" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D202">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>201</v>
       </c>
@@ -4136,8 +4745,11 @@
       <c r="C203" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D203">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>202</v>
       </c>
@@ -4147,8 +4759,11 @@
       <c r="C204" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D204">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>203</v>
       </c>
@@ -4158,8 +4773,11 @@
       <c r="C205" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D205">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>204</v>
       </c>
@@ -4169,8 +4787,11 @@
       <c r="C206" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D206">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>205</v>
       </c>
@@ -4180,8 +4801,11 @@
       <c r="C207" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D207">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>206</v>
       </c>
@@ -4191,8 +4815,11 @@
       <c r="C208" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D208">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>207</v>
       </c>
@@ -4202,8 +4829,11 @@
       <c r="C209" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D209">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>208</v>
       </c>
@@ -4213,8 +4843,11 @@
       <c r="C210" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>209</v>
       </c>
@@ -4224,8 +4857,11 @@
       <c r="C211" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D211">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>210</v>
       </c>
@@ -4235,8 +4871,11 @@
       <c r="C212" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>211</v>
       </c>
@@ -4246,8 +4885,11 @@
       <c r="C213" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D213">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>212</v>
       </c>
@@ -4257,8 +4899,11 @@
       <c r="C214" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D214">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>213</v>
       </c>
@@ -4268,8 +4913,11 @@
       <c r="C215" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D215">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>214</v>
       </c>
@@ -4279,8 +4927,11 @@
       <c r="C216" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D216">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>215</v>
       </c>
@@ -4290,8 +4941,11 @@
       <c r="C217" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D217">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>216</v>
       </c>
@@ -4301,8 +4955,11 @@
       <c r="C218" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D218">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>217</v>
       </c>
@@ -4312,8 +4969,11 @@
       <c r="C219" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>218</v>
       </c>
@@ -4323,8 +4983,11 @@
       <c r="C220" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D220">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>219</v>
       </c>
@@ -4334,8 +4997,11 @@
       <c r="C221" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D221">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>220</v>
       </c>
@@ -4345,8 +5011,11 @@
       <c r="C222" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D222">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>221</v>
       </c>
@@ -4356,8 +5025,11 @@
       <c r="C223" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D223">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>222</v>
       </c>
@@ -4367,8 +5039,11 @@
       <c r="C224" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D224">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>223</v>
       </c>
@@ -4378,8 +5053,11 @@
       <c r="C225" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D225">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>224</v>
       </c>
@@ -4389,8 +5067,11 @@
       <c r="C226" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D226">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>225</v>
       </c>
@@ -4400,8 +5081,11 @@
       <c r="C227" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D227">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>226</v>
       </c>
@@ -4411,8 +5095,11 @@
       <c r="C228" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D228">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>227</v>
       </c>
@@ -4422,8 +5109,11 @@
       <c r="C229" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D229">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>228</v>
       </c>
@@ -4433,8 +5123,11 @@
       <c r="C230" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D230">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>229</v>
       </c>
@@ -4444,8 +5137,11 @@
       <c r="C231" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D231">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>230</v>
       </c>
@@ -4455,8 +5151,11 @@
       <c r="C232" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D232">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>231</v>
       </c>
@@ -4466,8 +5165,11 @@
       <c r="C233" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D233">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>232</v>
       </c>
@@ -4477,8 +5179,11 @@
       <c r="C234" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D234">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>233</v>
       </c>
@@ -4488,8 +5193,11 @@
       <c r="C235" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D235">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>234</v>
       </c>
@@ -4499,8 +5207,11 @@
       <c r="C236" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D236">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>235</v>
       </c>
@@ -4510,8 +5221,11 @@
       <c r="C237" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D237">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>236</v>
       </c>
@@ -4521,8 +5235,11 @@
       <c r="C238" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D238">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>237</v>
       </c>
@@ -4532,8 +5249,11 @@
       <c r="C239" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D239">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>238</v>
       </c>
@@ -4543,8 +5263,11 @@
       <c r="C240" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D240">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>239</v>
       </c>
@@ -4554,8 +5277,11 @@
       <c r="C241" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D241">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>240</v>
       </c>
@@ -4565,8 +5291,11 @@
       <c r="C242" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D242">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>241</v>
       </c>
@@ -4576,8 +5305,11 @@
       <c r="C243" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D243">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>242</v>
       </c>
@@ -4587,8 +5319,11 @@
       <c r="C244" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D244">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>243</v>
       </c>
@@ -4598,8 +5333,11 @@
       <c r="C245" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D245">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>244</v>
       </c>
@@ -4609,8 +5347,11 @@
       <c r="C246" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D246">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>245</v>
       </c>
@@ -4620,8 +5361,11 @@
       <c r="C247" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D247">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>246</v>
       </c>
@@ -4631,8 +5375,11 @@
       <c r="C248" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D248">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>247</v>
       </c>
@@ -4642,8 +5389,11 @@
       <c r="C249" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D249">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>248</v>
       </c>
@@ -4653,8 +5403,11 @@
       <c r="C250" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D250">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>249</v>
       </c>
@@ -4664,8 +5417,11 @@
       <c r="C251" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D251">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>250</v>
       </c>
@@ -4675,8 +5431,11 @@
       <c r="C252" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D252">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>251</v>
       </c>
@@ -4686,8 +5445,11 @@
       <c r="C253" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D253">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>252</v>
       </c>
@@ -4697,8 +5459,11 @@
       <c r="C254" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D254">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>253</v>
       </c>
@@ -4708,8 +5473,11 @@
       <c r="C255" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D255">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>254</v>
       </c>
@@ -4719,8 +5487,11 @@
       <c r="C256" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D256">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>255</v>
       </c>
@@ -4730,8 +5501,11 @@
       <c r="C257" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D257">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>256</v>
       </c>
@@ -4741,8 +5515,11 @@
       <c r="C258" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D258">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>257</v>
       </c>
@@ -4752,8 +5529,11 @@
       <c r="C259" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D259">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>258</v>
       </c>
@@ -4763,8 +5543,11 @@
       <c r="C260" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D260">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>259</v>
       </c>
@@ -4774,8 +5557,11 @@
       <c r="C261" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D261">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>260</v>
       </c>
@@ -4785,8 +5571,11 @@
       <c r="C262" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D262">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>261</v>
       </c>
@@ -4796,8 +5585,11 @@
       <c r="C263" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D263">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>262</v>
       </c>
@@ -4807,8 +5599,11 @@
       <c r="C264" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D264">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>263</v>
       </c>
@@ -4818,8 +5613,11 @@
       <c r="C265" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D265">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>264</v>
       </c>
@@ -4829,8 +5627,11 @@
       <c r="C266" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D266">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>265</v>
       </c>
@@ -4840,8 +5641,11 @@
       <c r="C267" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D267">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>266</v>
       </c>
@@ -4851,8 +5655,11 @@
       <c r="C268" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D268">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>267</v>
       </c>
@@ -4862,8 +5669,11 @@
       <c r="C269" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D269">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>268</v>
       </c>
@@ -4873,8 +5683,11 @@
       <c r="C270" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D270">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>269</v>
       </c>
@@ -4884,8 +5697,11 @@
       <c r="C271" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D271">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>270</v>
       </c>
@@ -4895,8 +5711,11 @@
       <c r="C272" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D272">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>271</v>
       </c>
@@ -4906,8 +5725,11 @@
       <c r="C273" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D273">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>272</v>
       </c>
@@ -4917,8 +5739,11 @@
       <c r="C274" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D274">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>273</v>
       </c>
@@ -4928,8 +5753,11 @@
       <c r="C275" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D275">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>274</v>
       </c>
@@ -4939,8 +5767,11 @@
       <c r="C276" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D276">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>275</v>
       </c>
@@ -4950,8 +5781,11 @@
       <c r="C277" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D277">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>276</v>
       </c>
@@ -4961,8 +5795,11 @@
       <c r="C278" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D278">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>277</v>
       </c>
@@ -4972,8 +5809,11 @@
       <c r="C279" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D279">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>278</v>
       </c>
@@ -4983,8 +5823,11 @@
       <c r="C280" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D280">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>279</v>
       </c>
@@ -4994,8 +5837,11 @@
       <c r="C281" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D281">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>280</v>
       </c>
@@ -5005,8 +5851,11 @@
       <c r="C282" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D282">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>281</v>
       </c>
@@ -5016,8 +5865,11 @@
       <c r="C283" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D283">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>282</v>
       </c>
@@ -5027,8 +5879,11 @@
       <c r="C284" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D284">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>283</v>
       </c>
@@ -5038,8 +5893,11 @@
       <c r="C285" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D285">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>284</v>
       </c>
@@ -5049,8 +5907,11 @@
       <c r="C286" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D286">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>285</v>
       </c>
@@ -5060,8 +5921,11 @@
       <c r="C287" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D287">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>286</v>
       </c>
@@ -5071,8 +5935,11 @@
       <c r="C288" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D288">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>287</v>
       </c>
@@ -5082,8 +5949,11 @@
       <c r="C289" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D289">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>288</v>
       </c>
@@ -5093,8 +5963,11 @@
       <c r="C290" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D290">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>289</v>
       </c>
@@ -5104,8 +5977,11 @@
       <c r="C291" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D291">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>290</v>
       </c>
@@ -5115,8 +5991,11 @@
       <c r="C292" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D292">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>291</v>
       </c>
@@ -5126,8 +6005,11 @@
       <c r="C293" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D293">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>292</v>
       </c>
@@ -5137,8 +6019,11 @@
       <c r="C294" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D294">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>293</v>
       </c>
@@ -5148,8 +6033,11 @@
       <c r="C295" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D295">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>294</v>
       </c>
@@ -5159,8 +6047,11 @@
       <c r="C296" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D296">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>295</v>
       </c>
@@ -5170,8 +6061,11 @@
       <c r="C297" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D297">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>296</v>
       </c>
@@ -5181,8 +6075,11 @@
       <c r="C298" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D298">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>297</v>
       </c>
@@ -5192,8 +6089,11 @@
       <c r="C299" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D299">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>298</v>
       </c>
@@ -5203,8 +6103,11 @@
       <c r="C300" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D300">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>299</v>
       </c>
@@ -5214,8 +6117,11 @@
       <c r="C301" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D301">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>300</v>
       </c>
@@ -5225,8 +6131,11 @@
       <c r="C302" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D302">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>301</v>
       </c>
@@ -5236,8 +6145,11 @@
       <c r="C303" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D303">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>302</v>
       </c>
@@ -5247,8 +6159,11 @@
       <c r="C304" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D304">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>303</v>
       </c>
@@ -5258,8 +6173,11 @@
       <c r="C305" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D305">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>304</v>
       </c>
@@ -5269,8 +6187,11 @@
       <c r="C306" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D306">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>305</v>
       </c>
@@ -5280,8 +6201,11 @@
       <c r="C307" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D307">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>306</v>
       </c>
@@ -5291,8 +6215,11 @@
       <c r="C308" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D308">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>307</v>
       </c>
@@ -5302,8 +6229,11 @@
       <c r="C309" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D309">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>308</v>
       </c>
@@ -5313,8 +6243,11 @@
       <c r="C310" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D310">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>309</v>
       </c>
@@ -5324,8 +6257,11 @@
       <c r="C311" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D311">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>310</v>
       </c>
@@ -5335,8 +6271,11 @@
       <c r="C312" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D312">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>311</v>
       </c>
@@ -5346,8 +6285,11 @@
       <c r="C313" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D313">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>312</v>
       </c>
@@ -5357,8 +6299,11 @@
       <c r="C314" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D314">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>313</v>
       </c>
@@ -5368,8 +6313,11 @@
       <c r="C315" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D315">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>314</v>
       </c>
@@ -5379,8 +6327,11 @@
       <c r="C316" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D316">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>315</v>
       </c>
@@ -5390,8 +6341,11 @@
       <c r="C317" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D317">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>316</v>
       </c>
@@ -5401,8 +6355,11 @@
       <c r="C318" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D318">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>317</v>
       </c>
@@ -5412,8 +6369,11 @@
       <c r="C319" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D319">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>318</v>
       </c>
@@ -5423,8 +6383,11 @@
       <c r="C320" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D320">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>319</v>
       </c>
@@ -5434,8 +6397,11 @@
       <c r="C321" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D321">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>320</v>
       </c>
@@ -5445,8 +6411,11 @@
       <c r="C322" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D322">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>321</v>
       </c>
@@ -5456,8 +6425,11 @@
       <c r="C323" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D323">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>322</v>
       </c>
@@ -5467,8 +6439,11 @@
       <c r="C324" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D324">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>323</v>
       </c>
@@ -5478,8 +6453,11 @@
       <c r="C325" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D325">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>324</v>
       </c>
@@ -5489,8 +6467,11 @@
       <c r="C326" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D326">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>325</v>
       </c>
@@ -5500,8 +6481,11 @@
       <c r="C327" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D327">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>326</v>
       </c>
@@ -5511,8 +6495,11 @@
       <c r="C328" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D328">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>327</v>
       </c>
@@ -5522,8 +6509,11 @@
       <c r="C329" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D329">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>328</v>
       </c>
@@ -5533,8 +6523,11 @@
       <c r="C330" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D330">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>329</v>
       </c>
@@ -5544,8 +6537,11 @@
       <c r="C331" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D331">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>330</v>
       </c>
@@ -5555,8 +6551,11 @@
       <c r="C332" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D332">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>331</v>
       </c>
@@ -5566,8 +6565,11 @@
       <c r="C333" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D333">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>332</v>
       </c>
@@ -5577,8 +6579,11 @@
       <c r="C334" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D334">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>333</v>
       </c>
@@ -5588,8 +6593,11 @@
       <c r="C335" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D335">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>334</v>
       </c>
@@ -5599,8 +6607,11 @@
       <c r="C336" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D336">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>335</v>
       </c>
@@ -5610,8 +6621,11 @@
       <c r="C337" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D337">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>336</v>
       </c>
@@ -5621,8 +6635,11 @@
       <c r="C338" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D338">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>337</v>
       </c>
@@ -5632,8 +6649,11 @@
       <c r="C339" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D339">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>338</v>
       </c>
@@ -5643,8 +6663,11 @@
       <c r="C340" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D340">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>339</v>
       </c>
@@ -5654,8 +6677,11 @@
       <c r="C341" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D341">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>340</v>
       </c>
@@ -5665,8 +6691,11 @@
       <c r="C342" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D342">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>341</v>
       </c>
@@ -5676,8 +6705,11 @@
       <c r="C343" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D343">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>342</v>
       </c>
@@ -5687,8 +6719,11 @@
       <c r="C344" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D344">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>343</v>
       </c>
@@ -5698,8 +6733,11 @@
       <c r="C345" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D345">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>344</v>
       </c>
@@ -5709,8 +6747,11 @@
       <c r="C346" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D346">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>345</v>
       </c>
@@ -5720,8 +6761,11 @@
       <c r="C347" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D347">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>346</v>
       </c>
@@ -5731,8 +6775,11 @@
       <c r="C348" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D348">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>347</v>
       </c>
@@ -5742,8 +6789,11 @@
       <c r="C349" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D349">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>348</v>
       </c>
@@ -5753,8 +6803,11 @@
       <c r="C350" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D350">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>349</v>
       </c>
@@ -5764,8 +6817,11 @@
       <c r="C351" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D351">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>350</v>
       </c>
@@ -5775,8 +6831,11 @@
       <c r="C352" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D352">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>351</v>
       </c>
@@ -5786,8 +6845,11 @@
       <c r="C353" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D353">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>352</v>
       </c>
@@ -5797,8 +6859,11 @@
       <c r="C354" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D354">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>353</v>
       </c>
@@ -5808,8 +6873,11 @@
       <c r="C355" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D355">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>354</v>
       </c>
@@ -5819,8 +6887,11 @@
       <c r="C356" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D356">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>355</v>
       </c>
@@ -5830,8 +6901,11 @@
       <c r="C357" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D357">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>356</v>
       </c>
@@ -5841,8 +6915,11 @@
       <c r="C358" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D358">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>357</v>
       </c>
@@ -5852,8 +6929,11 @@
       <c r="C359" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D359">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>358</v>
       </c>
@@ -5863,8 +6943,11 @@
       <c r="C360" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D360">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>359</v>
       </c>
@@ -5874,8 +6957,11 @@
       <c r="C361" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D361">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>360</v>
       </c>
@@ -5885,8 +6971,11 @@
       <c r="C362" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D362">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>361</v>
       </c>
@@ -5896,8 +6985,11 @@
       <c r="C363" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D363">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>362</v>
       </c>
@@ -5907,8 +6999,11 @@
       <c r="C364" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D364">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>363</v>
       </c>
@@ -5918,8 +7013,11 @@
       <c r="C365" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D365">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>364</v>
       </c>
@@ -5929,8 +7027,11 @@
       <c r="C366" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D366">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>365</v>
       </c>
@@ -5940,8 +7041,11 @@
       <c r="C367" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D367">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>366</v>
       </c>
@@ -5951,8 +7055,11 @@
       <c r="C368" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D368">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>367</v>
       </c>
@@ -5962,8 +7069,11 @@
       <c r="C369" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D369">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>368</v>
       </c>
@@ -5973,8 +7083,11 @@
       <c r="C370" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D370">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>369</v>
       </c>
@@ -5984,8 +7097,11 @@
       <c r="C371" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D371">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>370</v>
       </c>
@@ -5995,8 +7111,11 @@
       <c r="C372" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D372">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>371</v>
       </c>
@@ -6006,8 +7125,11 @@
       <c r="C373" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D373">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>372</v>
       </c>
@@ -6017,8 +7139,11 @@
       <c r="C374" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D374">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>373</v>
       </c>
@@ -6028,8 +7153,11 @@
       <c r="C375" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D375">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>374</v>
       </c>
@@ -6039,8 +7167,11 @@
       <c r="C376" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D376">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>375</v>
       </c>
@@ -6050,8 +7181,11 @@
       <c r="C377" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D377">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>376</v>
       </c>
@@ -6061,8 +7195,11 @@
       <c r="C378" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D378">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>377</v>
       </c>
@@ -6072,8 +7209,11 @@
       <c r="C379" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D379">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>378</v>
       </c>
@@ -6083,8 +7223,11 @@
       <c r="C380" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D380">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>379</v>
       </c>
@@ -6094,8 +7237,11 @@
       <c r="C381" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D381">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>380</v>
       </c>
@@ -6105,8 +7251,11 @@
       <c r="C382" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D382">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>381</v>
       </c>
@@ -6116,8 +7265,11 @@
       <c r="C383" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D383">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>382</v>
       </c>
@@ -6127,8 +7279,11 @@
       <c r="C384" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D384">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>383</v>
       </c>
@@ -6138,8 +7293,11 @@
       <c r="C385" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D385">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>384</v>
       </c>
@@ -6149,8 +7307,11 @@
       <c r="C386" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D386">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>385</v>
       </c>
@@ -6160,8 +7321,11 @@
       <c r="C387" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D387">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>386</v>
       </c>
@@ -6171,8 +7335,11 @@
       <c r="C388" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D388">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>387</v>
       </c>
@@ -6182,8 +7349,11 @@
       <c r="C389" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D389">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>388</v>
       </c>
@@ -6193,8 +7363,11 @@
       <c r="C390" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D390">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>389</v>
       </c>
@@ -6204,8 +7377,11 @@
       <c r="C391" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D391">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>390</v>
       </c>
@@ -6215,8 +7391,11 @@
       <c r="C392" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D392">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>391</v>
       </c>
@@ -6226,8 +7405,11 @@
       <c r="C393" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D393">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>392</v>
       </c>
@@ -6237,8 +7419,11 @@
       <c r="C394" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D394">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>393</v>
       </c>
@@ -6248,8 +7433,11 @@
       <c r="C395" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D395">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>394</v>
       </c>
@@ -6259,8 +7447,11 @@
       <c r="C396" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D396">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>395</v>
       </c>
@@ -6270,8 +7461,11 @@
       <c r="C397" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D397">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>396</v>
       </c>
@@ -6281,8 +7475,11 @@
       <c r="C398" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D398">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>397</v>
       </c>
@@ -6292,8 +7489,11 @@
       <c r="C399" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D399">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>398</v>
       </c>
@@ -6303,8 +7503,11 @@
       <c r="C400" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D400">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>399</v>
       </c>
@@ -6314,8 +7517,11 @@
       <c r="C401" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D401">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>400</v>
       </c>
@@ -6325,8 +7531,11 @@
       <c r="C402" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D402">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>401</v>
       </c>
@@ -6336,8 +7545,11 @@
       <c r="C403" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D403">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>402</v>
       </c>
@@ -6347,8 +7559,11 @@
       <c r="C404" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D404">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>403</v>
       </c>
@@ -6358,8 +7573,11 @@
       <c r="C405" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D405">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>404</v>
       </c>
@@ -6369,8 +7587,11 @@
       <c r="C406" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D406">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>405</v>
       </c>
@@ -6380,8 +7601,11 @@
       <c r="C407" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D407">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>406</v>
       </c>
@@ -6391,8 +7615,11 @@
       <c r="C408" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D408">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>407</v>
       </c>
@@ -6402,8 +7629,11 @@
       <c r="C409" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D409">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>408</v>
       </c>
@@ -6413,8 +7643,11 @@
       <c r="C410" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D410">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>409</v>
       </c>
@@ -6424,8 +7657,11 @@
       <c r="C411" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D411">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>410</v>
       </c>
@@ -6435,8 +7671,11 @@
       <c r="C412" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D412">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>411</v>
       </c>
@@ -6446,8 +7685,11 @@
       <c r="C413" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D413">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>412</v>
       </c>
@@ -6457,8 +7699,11 @@
       <c r="C414" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D414">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>413</v>
       </c>
@@ -6468,8 +7713,11 @@
       <c r="C415" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D415">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>414</v>
       </c>
@@ -6479,8 +7727,11 @@
       <c r="C416" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D416">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>415</v>
       </c>
@@ -6490,8 +7741,11 @@
       <c r="C417" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D417">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>416</v>
       </c>
@@ -6501,8 +7755,11 @@
       <c r="C418" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D418">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>417</v>
       </c>
@@ -6512,8 +7769,11 @@
       <c r="C419" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D419">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>418</v>
       </c>
@@ -6523,8 +7783,11 @@
       <c r="C420" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D420">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>419</v>
       </c>
@@ -6534,8 +7797,11 @@
       <c r="C421" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D421">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>420</v>
       </c>
@@ -6545,8 +7811,11 @@
       <c r="C422" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D422">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>421</v>
       </c>
@@ -6556,8 +7825,11 @@
       <c r="C423" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D423">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>422</v>
       </c>
@@ -6567,8 +7839,11 @@
       <c r="C424" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D424">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>423</v>
       </c>
@@ -6578,8 +7853,11 @@
       <c r="C425" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D425">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>424</v>
       </c>
@@ -6589,8 +7867,11 @@
       <c r="C426" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D426">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>425</v>
       </c>
@@ -6600,8 +7881,11 @@
       <c r="C427" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D427">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>426</v>
       </c>
@@ -6611,8 +7895,11 @@
       <c r="C428" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D428">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>427</v>
       </c>
@@ -6622,8 +7909,11 @@
       <c r="C429" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D429">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>428</v>
       </c>
@@ -6633,8 +7923,11 @@
       <c r="C430" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D430">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>429</v>
       </c>
@@ -6644,8 +7937,11 @@
       <c r="C431" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D431">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>430</v>
       </c>
@@ -6655,8 +7951,11 @@
       <c r="C432" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D432">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>431</v>
       </c>
@@ -6666,8 +7965,11 @@
       <c r="C433" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D433">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>432</v>
       </c>
@@ -6677,8 +7979,11 @@
       <c r="C434" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D434">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>433</v>
       </c>
@@ -6688,8 +7993,11 @@
       <c r="C435" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D435">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>434</v>
       </c>
@@ -6699,8 +8007,11 @@
       <c r="C436" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D436">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>435</v>
       </c>
@@ -6710,8 +8021,11 @@
       <c r="C437" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D437">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>436</v>
       </c>
@@ -6721,8 +8035,11 @@
       <c r="C438" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D438">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>437</v>
       </c>
@@ -6732,8 +8049,11 @@
       <c r="C439" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D439">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>438</v>
       </c>
@@ -6743,8 +8063,11 @@
       <c r="C440" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D440">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>439</v>
       </c>
@@ -6754,8 +8077,11 @@
       <c r="C441" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D441">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>440</v>
       </c>
@@ -6765,8 +8091,11 @@
       <c r="C442" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D442">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>441</v>
       </c>
@@ -6776,8 +8105,11 @@
       <c r="C443" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D443">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>442</v>
       </c>
@@ -6787,8 +8119,11 @@
       <c r="C444" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D444">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>443</v>
       </c>
@@ -6798,8 +8133,11 @@
       <c r="C445" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D445">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>444</v>
       </c>
@@ -6809,8 +8147,11 @@
       <c r="C446" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D446">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>445</v>
       </c>
@@ -6820,8 +8161,11 @@
       <c r="C447" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D447">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>446</v>
       </c>
@@ -6831,8 +8175,11 @@
       <c r="C448" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D448">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>447</v>
       </c>
@@ -6842,8 +8189,11 @@
       <c r="C449" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D449">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>448</v>
       </c>
@@ -6853,8 +8203,11 @@
       <c r="C450" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D450">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>449</v>
       </c>
@@ -6864,8 +8217,11 @@
       <c r="C451" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D451">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>450</v>
       </c>
@@ -6875,8 +8231,11 @@
       <c r="C452" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D452">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>451</v>
       </c>
@@ -6886,8 +8245,11 @@
       <c r="C453" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D453">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>452</v>
       </c>
@@ -6897,8 +8259,11 @@
       <c r="C454" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D454">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>453</v>
       </c>
@@ -6908,8 +8273,11 @@
       <c r="C455" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D455">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>454</v>
       </c>
@@ -6919,8 +8287,11 @@
       <c r="C456" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D456">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>455</v>
       </c>
@@ -6930,8 +8301,11 @@
       <c r="C457" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D457">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>456</v>
       </c>
@@ -6941,8 +8315,11 @@
       <c r="C458" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D458">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>457</v>
       </c>
@@ -6952,8 +8329,11 @@
       <c r="C459" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D459">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>458</v>
       </c>
@@ -6963,8 +8343,11 @@
       <c r="C460" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D460">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>459</v>
       </c>
@@ -6974,8 +8357,11 @@
       <c r="C461" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D461">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>460</v>
       </c>
@@ -6985,8 +8371,11 @@
       <c r="C462" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D462">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>461</v>
       </c>
@@ -6995,6 +8384,9 @@
       </c>
       <c r="C463" t="s">
         <v>477</v>
+      </c>
+      <c r="D463">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
